--- a/biology/Zoologie/Conus_quercinus/Conus_quercinus.xlsx
+++ b/biology/Zoologie/Conus_quercinus/Conus_quercinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus quercinus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 35 mm et 140 mm. La coquille a une couleur jaune citron, avec de nombreuses lignes tournantes fines, plutôt serrées, de couleur châtain. Chez les vieux spécimens, les lignes de rotation deviennent obsolètes. La spire est plutôt élevée, avec un contour concave. L'épaule du verticille est obtusément angulée[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 35 mm et 140 mm. La coquille a une couleur jaune citron, avec de nombreuses lignes tournantes fines, plutôt serrées, de couleur châtain. Chez les vieux spécimens, les lignes de rotation deviennent obsolètes. La spire est plutôt élevée, avec un contour concave. L'épaule du verticille est obtusément angulée. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans tout l'Indo-Pacifique, y compris à Hawaï, dans la République des Îles Marshall, en Polynésie française, à Fidji, en Nouvelle-Calédonie, dans la mer Rouge, dans l'océan Indien au large d'Aldabra, des archipel des Chagos, du bassin des Mascareignes, de Madagascar et de Maurice ; au large de l'Inde orientale, dans le Pacifique tropical indo-occidental et au large de l'Australie (Territoire du Nord, Queensland, Australie occidentale).
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans tout l'Indo-Pacifique. Cette espèce est très commune dans sa vaste aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce et sa distribution peut chevaucher les AMP. Nous l'avons inscrite dans la catégorie " préoccupation mineure "[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans tout l'Indo-Pacifique. Cette espèce est très commune dans sa vaste aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce et sa distribution peut chevaucher les AMP. Nous l'avons inscrite dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_quercinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_quercinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus quercinus a été décrite pour la première fois en 1786 par le prêtre, libraire, botaniste et conchyliologiste britannique John Lightfoot (biologiste) dans « A Catalogue of the Portland Museum »[3],[4].
-Synonymes
-Calamiconus jeffreyi Petuch &amp; Sargent, 2011 · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus quercinus a été décrite pour la première fois en 1786 par le prêtre, libraire, botaniste et conchyliologiste britannique John Lightfoot (biologiste) dans « A Catalogue of the Portland Museum »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_quercinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_quercinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Calamiconus jeffreyi Petuch &amp; Sargent, 2011 · non accepté
 Calamiconus quercinus ([Lightfoot], 1786) · non accepté
 Cleobula albonerosa Garrard, 1966 · non accepté
 Conus (Lividoconus) quercinus [Lightfoot], 1786 · appellation alternative
@@ -596,9 +687,43 @@
 Conus quercinus var. albus H. Shaw, 1915 · non accepté
 invalide : junior homonyme de Conus albus G. B. Sowerby III, 1887
 Conus quercinus var. ponderosus G. B. Sowerby II, 1858 · non accepté
-Dendroconus quercinus ([Lightfoot], 1786) · non accepté
-Sous-espèces
-Conus quercinus var. albus H. Shaw, 1915, accepté en tant que Conus quercinus [Lightfoot], 1786
+Dendroconus quercinus ([Lightfoot], 1786) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_quercinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_quercinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus quercinus var. albus H. Shaw, 1915, accepté en tant que Conus quercinus [Lightfoot], 1786
 Conus quercinus var. ponderosus G. B. Sowerby II, 1858, accepté en tant que Conus quercinus [Lightfoot], 1786</t>
         </is>
       </c>
